--- a/정원/project_3/2_3_지청_신설_컬럼_업데이트.xlsx
+++ b/정원/project_3/2_3_지청_신설_컬럼_업데이트.xlsx
@@ -557,40 +557,40 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H2" t="n">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I2" t="n">
         <v>22</v>
       </c>
       <c r="J2" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K2" t="n">
         <v>60427</v>
       </c>
       <c r="L2" t="n">
-        <v>0.6487675441659103</v>
+        <v>0.6669131524054432</v>
       </c>
       <c r="M2" t="n">
         <v>672870</v>
       </c>
       <c r="N2" t="n">
-        <v>0.7759729428981195</v>
+        <v>0.7852558117822799</v>
       </c>
       <c r="O2" t="n">
-        <v>2013</v>
+        <v>1979</v>
       </c>
       <c r="P2" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q2" t="n">
-        <v>5044</v>
+        <v>4958</v>
       </c>
       <c r="R2" t="n">
-        <v>10098</v>
+        <v>9926</v>
       </c>
     </row>
     <row r="3">
@@ -640,13 +640,13 @@
         <v>60696</v>
       </c>
       <c r="L3" t="n">
-        <v>0.6518981449153923</v>
+        <v>0.6698820179456333</v>
       </c>
       <c r="M3" t="n">
         <v>730965</v>
       </c>
       <c r="N3" t="n">
-        <v>0.8467019895930478</v>
+        <v>0.8530541032583325</v>
       </c>
       <c r="O3" t="n">
         <v>2063</v>
@@ -708,13 +708,13 @@
         <v>73619</v>
       </c>
       <c r="L4" t="n">
-        <v>0.8022949980215535</v>
+        <v>0.8125089672983323</v>
       </c>
       <c r="M4" t="n">
         <v>735728</v>
       </c>
       <c r="N4" t="n">
-        <v>0.8525008096190043</v>
+        <v>0.8586126412099711</v>
       </c>
       <c r="O4" t="n">
         <v>5303</v>
@@ -776,13 +776,13 @@
         <v>52899</v>
       </c>
       <c r="L5" t="n">
-        <v>0.5611572748644182</v>
+        <v>0.5838290639796042</v>
       </c>
       <c r="M5" t="n">
         <v>528901</v>
       </c>
       <c r="N5" t="n">
-        <v>0.6006946896298154</v>
+        <v>0.6172404537391467</v>
       </c>
       <c r="O5" t="n">
         <v>2163</v>
@@ -844,13 +844,13 @@
         <v>60319</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6475106486977167</v>
+        <v>0.665721191519419</v>
       </c>
       <c r="M6" t="n">
         <v>719842</v>
       </c>
       <c r="N6" t="n">
-        <v>0.8331600464587386</v>
+        <v>0.8400732891420035</v>
       </c>
       <c r="O6" t="n">
         <v>2827</v>
@@ -912,13 +912,13 @@
         <v>43328</v>
       </c>
       <c r="L7" t="n">
-        <v>0.4497707329562648</v>
+        <v>0.4781970487931396</v>
       </c>
       <c r="M7" t="n">
         <v>350066</v>
       </c>
       <c r="N7" t="n">
-        <v>0.3829680510948728</v>
+        <v>0.4085356175893941</v>
       </c>
       <c r="O7" t="n">
         <v>2072</v>
@@ -980,13 +980,13 @@
         <v>63504</v>
       </c>
       <c r="L8" t="n">
-        <v>0.684577427088425</v>
+        <v>0.700873000982264</v>
       </c>
       <c r="M8" t="n">
         <v>580994</v>
       </c>
       <c r="N8" t="n">
-        <v>0.6641164682592826</v>
+        <v>0.6780342638409113</v>
       </c>
       <c r="O8" t="n">
         <v>2222</v>
@@ -1048,13 +1048,13 @@
         <v>58023</v>
       </c>
       <c r="L9" t="n">
-        <v>0.6207899820776017</v>
+        <v>0.6403809860165329</v>
       </c>
       <c r="M9" t="n">
         <v>534171</v>
       </c>
       <c r="N9" t="n">
-        <v>0.6071107680545038</v>
+        <v>0.6233906731397628</v>
       </c>
       <c r="O9" t="n">
         <v>4594</v>
@@ -1116,13 +1116,13 @@
         <v>46944</v>
       </c>
       <c r="L10" t="n">
-        <v>0.4918534552987455</v>
+        <v>0.5181056651252111</v>
       </c>
       <c r="M10" t="n">
         <v>396227</v>
       </c>
       <c r="N10" t="n">
-        <v>0.4391677847119583</v>
+        <v>0.4624066380356643</v>
       </c>
       <c r="O10" t="n">
         <v>3780</v>
@@ -1184,13 +1184,13 @@
         <v>55733</v>
       </c>
       <c r="L11" t="n">
-        <v>0.5941391429834975</v>
+        <v>0.6151070005628704</v>
       </c>
       <c r="M11" t="n">
         <v>401360</v>
       </c>
       <c r="N11" t="n">
-        <v>0.4454170694470485</v>
+        <v>0.4683969750723555</v>
       </c>
       <c r="O11" t="n">
         <v>3093</v>
@@ -1237,40 +1237,40 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H12" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I12" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J12" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K12" t="n">
         <v>40440</v>
       </c>
       <c r="L12" t="n">
-        <v>0.4161604171030887</v>
+        <v>0.4463231317668613</v>
       </c>
       <c r="M12" t="n">
         <v>294750</v>
       </c>
       <c r="N12" t="n">
-        <v>0.3156223596071948</v>
+        <v>0.3439804873494539</v>
       </c>
       <c r="O12" t="n">
-        <v>2994</v>
+        <v>2936</v>
       </c>
       <c r="P12" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>10484</v>
+        <v>10279</v>
       </c>
     </row>
     <row r="13">
@@ -1320,13 +1320,13 @@
         <v>61089</v>
       </c>
       <c r="L13" t="n">
-        <v>0.6564718478690967</v>
+        <v>0.6742194311697771</v>
       </c>
       <c r="M13" t="n">
         <v>469642</v>
       </c>
       <c r="N13" t="n">
-        <v>0.5285485053093962</v>
+        <v>0.5480837456820091</v>
       </c>
       <c r="O13" t="n">
         <v>3734</v>
@@ -1373,40 +1373,40 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="H14" t="n">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="I14" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J14" t="n">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K14" t="n">
         <v>77514</v>
       </c>
       <c r="L14" t="n">
-        <v>0.8476247003235343</v>
+        <v>0.8554968159192998</v>
       </c>
       <c r="M14" t="n">
         <v>699439</v>
       </c>
       <c r="N14" t="n">
-        <v>0.8083199614304811</v>
+        <v>0.8162624871627299</v>
       </c>
       <c r="O14" t="n">
-        <v>5518</v>
+        <v>5393</v>
       </c>
       <c r="P14" t="n">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="Q14" t="n">
-        <v>35694</v>
+        <v>34886</v>
       </c>
       <c r="R14" t="n">
-        <v>20011</v>
+        <v>19558</v>
       </c>
     </row>
     <row r="15">
@@ -1524,13 +1524,13 @@
         <v>54959</v>
       </c>
       <c r="L16" t="n">
-        <v>0.5851313921281103</v>
+        <v>0.6065646142130299</v>
       </c>
       <c r="M16" t="n">
         <v>484050</v>
       </c>
       <c r="N16" t="n">
-        <v>0.5460898445775006</v>
+        <v>0.5648982354588741</v>
       </c>
       <c r="O16" t="n">
         <v>2824</v>
@@ -1592,13 +1592,13 @@
         <v>54764</v>
       </c>
       <c r="L17" t="n">
-        <v>0.5828619975327608</v>
+        <v>0.6044124626132639</v>
       </c>
       <c r="M17" t="n">
         <v>443180</v>
       </c>
       <c r="N17" t="n">
-        <v>0.4963317563010273</v>
+        <v>0.5172019419288582</v>
       </c>
       <c r="O17" t="n">
         <v>3761</v>
@@ -1645,40 +1645,40 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="H18" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J18" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K18" t="n">
         <v>30231</v>
       </c>
       <c r="L18" t="n">
-        <v>0.2973488815957918</v>
+        <v>0.3336497180129571</v>
       </c>
       <c r="M18" t="n">
         <v>320407</v>
       </c>
       <c r="N18" t="n">
-        <v>0.3468590435051511</v>
+        <v>0.3739228363364765</v>
       </c>
       <c r="O18" t="n">
-        <v>2088</v>
+        <v>2233</v>
       </c>
       <c r="P18" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="Q18" t="n">
-        <v>13508</v>
+        <v>14444</v>
       </c>
       <c r="R18" t="n">
-        <v>7573</v>
+        <v>8097</v>
       </c>
     </row>
     <row r="19">
@@ -1728,13 +1728,13 @@
         <v>20440</v>
       </c>
       <c r="L19" t="n">
-        <v>0.1834019970672439</v>
+        <v>0.2255896343549615</v>
       </c>
       <c r="M19" t="n">
         <v>145603</v>
       </c>
       <c r="N19" t="n">
-        <v>0.1340400353553923</v>
+        <v>0.1699222761646905</v>
       </c>
       <c r="O19" t="n">
         <v>1493</v>
@@ -1796,13 +1796,13 @@
         <v>19525</v>
       </c>
       <c r="L20" t="n">
-        <v>0.172753299350604</v>
+        <v>0.2154910768483671</v>
       </c>
       <c r="M20" t="n">
         <v>134358</v>
       </c>
       <c r="N20" t="n">
-        <v>0.1203495606142878</v>
+        <v>0.1567990850527495</v>
       </c>
       <c r="O20" t="n">
         <v>1649</v>
@@ -1864,13 +1864,13 @@
         <v>16180</v>
       </c>
       <c r="L21" t="n">
-        <v>0.133824453599609</v>
+        <v>0.1785733994062269</v>
       </c>
       <c r="M21" t="n">
         <v>143513</v>
       </c>
       <c r="N21" t="n">
-        <v>0.1314955184848802</v>
+        <v>0.1674831948464196</v>
       </c>
       <c r="O21" t="n">
         <v>1183</v>
@@ -1932,13 +1932,13 @@
         <v>4681</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>0.05166267506925513</v>
       </c>
       <c r="M22" t="n">
         <v>35506</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>0.0414363738213052</v>
       </c>
       <c r="O22" t="n">
         <v>1966</v>
@@ -2000,13 +2000,13 @@
         <v>4764</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0009659474431487555</v>
+        <v>0.05257871908351452</v>
       </c>
       <c r="M23" t="n">
         <v>38002</v>
       </c>
       <c r="N23" t="n">
-        <v>0.003038810578372339</v>
+        <v>0.04434926710857996</v>
       </c>
       <c r="O23" t="n">
         <v>1193</v>
@@ -2068,13 +2068,13 @@
         <v>59393</v>
       </c>
       <c r="L24" t="n">
-        <v>0.6367339338500571</v>
+        <v>0.655501230589248</v>
       </c>
       <c r="M24" t="n">
         <v>528051</v>
       </c>
       <c r="N24" t="n">
-        <v>0.5996598382709947</v>
+        <v>0.6162484828680795</v>
       </c>
       <c r="O24" t="n">
         <v>3326</v>
@@ -2136,13 +2136,13 @@
         <v>45561</v>
       </c>
       <c r="L25" t="n">
-        <v>0.4757582105532668</v>
+        <v>0.5028419437791782</v>
       </c>
       <c r="M25" t="n">
         <v>370280</v>
       </c>
       <c r="N25" t="n">
-        <v>0.407578033879816</v>
+        <v>0.4321258519279246</v>
       </c>
       <c r="O25" t="n">
         <v>2330</v>
@@ -2204,13 +2204,13 @@
         <v>33159</v>
       </c>
       <c r="L26" t="n">
-        <v>0.3314247142890394</v>
+        <v>0.3659651020340592</v>
       </c>
       <c r="M26" t="n">
         <v>259238</v>
       </c>
       <c r="N26" t="n">
-        <v>0.2723874873078524</v>
+        <v>0.3025371113808235</v>
       </c>
       <c r="O26" t="n">
         <v>2320</v>
@@ -2272,13 +2272,13 @@
         <v>44692</v>
       </c>
       <c r="L27" t="n">
-        <v>0.4656448572027093</v>
+        <v>0.4932510733166312</v>
       </c>
       <c r="M27" t="n">
         <v>424004</v>
       </c>
       <c r="N27" t="n">
-        <v>0.4729855096460321</v>
+        <v>0.4948230790775838</v>
       </c>
       <c r="O27" t="n">
         <v>3653</v>
@@ -2325,40 +2325,40 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H28" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J28" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K28" t="n">
         <v>23293</v>
       </c>
       <c r="L28" t="n">
-        <v>0.2166049856853572</v>
+        <v>0.2570772677607691</v>
       </c>
       <c r="M28" t="n">
         <v>233124</v>
       </c>
       <c r="N28" t="n">
-        <v>0.2405944186205066</v>
+        <v>0.2720614321725329</v>
       </c>
       <c r="O28" t="n">
-        <v>2967</v>
+        <v>2857</v>
       </c>
       <c r="P28" t="n">
         <v>19</v>
       </c>
       <c r="Q28" t="n">
-        <v>28789</v>
+        <v>27714</v>
       </c>
       <c r="R28" t="n">
-        <v>5153</v>
+        <v>4961</v>
       </c>
     </row>
     <row r="29">
@@ -2408,13 +2408,13 @@
         <v>41994</v>
       </c>
       <c r="L29" t="n">
-        <v>0.4342457463398739</v>
+        <v>0.4634741245157659</v>
       </c>
       <c r="M29" t="n">
         <v>353194</v>
       </c>
       <c r="N29" t="n">
-        <v>0.3867763040953329</v>
+        <v>0.4121860703949211</v>
       </c>
       <c r="O29" t="n">
         <v>3484</v>
@@ -2476,13 +2476,13 @@
         <v>26614</v>
       </c>
       <c r="L30" t="n">
-        <v>0.2552545213323092</v>
+        <v>0.293730065006015</v>
       </c>
       <c r="M30" t="n">
         <v>207734</v>
       </c>
       <c r="N30" t="n">
-        <v>0.2096827997964387</v>
+        <v>0.2424306787414807</v>
       </c>
       <c r="O30" t="n">
         <v>1651</v>
@@ -2544,13 +2544,13 @@
         <v>13289</v>
       </c>
       <c r="L31" t="n">
-        <v>0.1001792239834276</v>
+        <v>0.1466663723553368</v>
       </c>
       <c r="M31" t="n">
         <v>127697</v>
       </c>
       <c r="N31" t="n">
-        <v>0.112239978377694</v>
+        <v>0.1490255344972458</v>
       </c>
       <c r="O31" t="n">
         <v>2358</v>
@@ -2597,40 +2597,40 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="H32" t="n">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I32" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J32" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K32" t="n">
         <v>39960</v>
       </c>
       <c r="L32" t="n">
-        <v>0.4105742150222285</v>
+        <v>0.4410255278289757</v>
       </c>
       <c r="M32" t="n">
         <v>337520</v>
       </c>
       <c r="N32" t="n">
-        <v>0.3676936450386791</v>
+        <v>0.3938941275324433</v>
       </c>
       <c r="O32" t="n">
-        <v>2518</v>
+        <v>2449</v>
       </c>
       <c r="P32" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q32" t="n">
-        <v>2619</v>
+        <v>2547</v>
       </c>
       <c r="R32" t="n">
-        <v>7219</v>
+        <v>7021</v>
       </c>
     </row>
     <row r="33">
@@ -2680,13 +2680,13 @@
         <v>51504</v>
       </c>
       <c r="L33" t="n">
-        <v>0.5449223750669181</v>
+        <v>0.5684329025351242</v>
       </c>
       <c r="M33" t="n">
         <v>438973</v>
       </c>
       <c r="N33" t="n">
-        <v>0.4912098508109582</v>
+        <v>0.512292269629353</v>
       </c>
       <c r="O33" t="n">
         <v>3500</v>
@@ -2748,13 +2748,13 @@
         <v>32073</v>
       </c>
       <c r="L34" t="n">
-        <v>0.3187859320810931</v>
+        <v>0.353979273124593</v>
       </c>
       <c r="M34" t="n">
         <v>298970</v>
       </c>
       <c r="N34" t="n">
-        <v>0.3207600922356929</v>
+        <v>0.3489053309681636</v>
       </c>
       <c r="O34" t="n">
         <v>2987</v>
@@ -2816,13 +2816,13 @@
         <v>19882</v>
       </c>
       <c r="L35" t="n">
-        <v>0.1769080371482439</v>
+        <v>0.2194311697771695</v>
       </c>
       <c r="M35" t="n">
         <v>209501</v>
       </c>
       <c r="N35" t="n">
-        <v>0.2118340731505989</v>
+        <v>0.2444928111287462</v>
       </c>
       <c r="O35" t="n">
         <v>1195</v>
@@ -2884,13 +2884,13 @@
         <v>10473</v>
       </c>
       <c r="L36" t="n">
-        <v>0.06740683844238066</v>
+        <v>0.1155870959197413</v>
       </c>
       <c r="M36" t="n">
         <v>77555</v>
       </c>
       <c r="N36" t="n">
-        <v>0.05119348798476699</v>
+        <v>0.09050858930071888</v>
       </c>
       <c r="O36" t="n">
         <v>1043</v>
@@ -2952,13 +2952,13 @@
         <v>9770</v>
       </c>
       <c r="L37" t="n">
-        <v>0.05922537997812072</v>
+        <v>0.107828313485713</v>
       </c>
       <c r="M37" t="n">
         <v>71258</v>
       </c>
       <c r="N37" t="n">
-        <v>0.04352706562418582</v>
+        <v>0.08315983568294277</v>
       </c>
       <c r="O37" t="n">
         <v>700</v>
@@ -3005,40 +3005,40 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="H38" t="n">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I38" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J38" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K38" t="n">
         <v>72964</v>
       </c>
       <c r="L38" t="n">
-        <v>0.7946721597653795</v>
+        <v>0.8052799452580927</v>
       </c>
       <c r="M38" t="n">
         <v>553675</v>
       </c>
       <c r="N38" t="n">
-        <v>0.6308563455867851</v>
+        <v>0.6461523200448137</v>
       </c>
       <c r="O38" t="n">
-        <v>4444</v>
+        <v>4344</v>
       </c>
       <c r="P38" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q38" t="n">
-        <v>2294</v>
+        <v>2243</v>
       </c>
       <c r="R38" t="n">
-        <v>13630</v>
+        <v>13325</v>
       </c>
     </row>
     <row r="39">
@@ -3088,13 +3088,13 @@
         <v>41269</v>
       </c>
       <c r="L39" t="n">
-        <v>0.4258082536135744</v>
+        <v>0.4554725352345845</v>
       </c>
       <c r="M39" t="n">
         <v>309238</v>
       </c>
       <c r="N39" t="n">
-        <v>0.333261096650247</v>
+        <v>0.3608883390906545</v>
       </c>
       <c r="O39" t="n">
         <v>2533</v>
@@ -3156,13 +3156,13 @@
         <v>14046</v>
       </c>
       <c r="L40" t="n">
-        <v>0.1089891301817843</v>
+        <v>0.1550211352323772</v>
       </c>
       <c r="M40" t="n">
         <v>115940</v>
       </c>
       <c r="N40" t="n">
-        <v>0.09792615787692331</v>
+        <v>0.1353048268135562</v>
       </c>
       <c r="O40" t="n">
         <v>1158</v>
@@ -3224,13 +3224,13 @@
         <v>13903</v>
       </c>
       <c r="L41" t="n">
-        <v>0.107324907478528</v>
+        <v>0.1534428907258821</v>
       </c>
       <c r="M41" t="n">
         <v>105165</v>
       </c>
       <c r="N41" t="n">
-        <v>0.08480789506363727</v>
+        <v>0.1227301372420876</v>
       </c>
       <c r="O41" t="n">
         <v>1112</v>
@@ -3292,13 +3292,13 @@
         <v>24070</v>
       </c>
       <c r="L42" t="n">
-        <v>0.2256476503037498</v>
+        <v>0.2656527641352213</v>
       </c>
       <c r="M42" t="n">
         <v>162516</v>
       </c>
       <c r="N42" t="n">
-        <v>0.1546311424515507</v>
+        <v>0.189660162449818</v>
       </c>
       <c r="O42" t="n">
         <v>2048</v>
@@ -3360,13 +3360,13 @@
         <v>31316</v>
       </c>
       <c r="L43" t="n">
-        <v>0.3099760258827363</v>
+        <v>0.3456245102475526</v>
       </c>
       <c r="M43" t="n">
         <v>288244</v>
       </c>
       <c r="N43" t="n">
-        <v>0.3077014855595624</v>
+        <v>0.3363878255998506</v>
       </c>
       <c r="O43" t="n">
         <v>2669</v>
@@ -3413,40 +3413,40 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="H44" t="n">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="I44" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J44" t="n">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K44" t="n">
         <v>64811</v>
       </c>
       <c r="L44" t="n">
-        <v>0.6997881898377675</v>
+        <v>0.7152979350381317</v>
       </c>
       <c r="M44" t="n">
         <v>589858</v>
       </c>
       <c r="N44" t="n">
-        <v>0.6749081417235023</v>
+        <v>0.6883787694893101</v>
       </c>
       <c r="O44" t="n">
-        <v>4600</v>
+        <v>4409</v>
       </c>
       <c r="P44" t="n">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="Q44" t="n">
-        <v>48347</v>
+        <v>46341</v>
       </c>
       <c r="R44" t="n">
-        <v>10539</v>
+        <v>10101</v>
       </c>
     </row>
     <row r="45">
@@ -3496,13 +3496,13 @@
         <v>42589</v>
       </c>
       <c r="L45" t="n">
-        <v>0.4411703093359403</v>
+        <v>0.4700409460637699</v>
       </c>
       <c r="M45" t="n">
         <v>409454</v>
       </c>
       <c r="N45" t="n">
-        <v>0.4552712893273953</v>
+        <v>0.477842871814023</v>
       </c>
       <c r="O45" t="n">
         <v>3492</v>
@@ -3564,13 +3564,13 @@
         <v>52513</v>
       </c>
       <c r="L46" t="n">
-        <v>0.5566650373577264</v>
+        <v>0.5795689074795546</v>
       </c>
       <c r="M46" t="n">
         <v>520282</v>
       </c>
       <c r="N46" t="n">
-        <v>0.5902012968513735</v>
+        <v>0.6071818691065261</v>
       </c>
       <c r="O46" t="n">
         <v>4147</v>
@@ -3632,13 +3632,13 @@
         <v>22501</v>
       </c>
       <c r="L47" t="n">
-        <v>0.2073877522519377</v>
+        <v>0.2483362212632578</v>
       </c>
       <c r="M47" t="n">
         <v>207051</v>
       </c>
       <c r="N47" t="n">
-        <v>0.2088512662928215</v>
+        <v>0.2416336009709644</v>
       </c>
       <c r="O47" t="n">
         <v>2021</v>
@@ -3700,13 +3700,13 @@
         <v>12784</v>
       </c>
       <c r="L48" t="n">
-        <v>0.09430207387752251</v>
+        <v>0.1410928515456863</v>
       </c>
       <c r="M48" t="n">
         <v>98232</v>
       </c>
       <c r="N48" t="n">
-        <v>0.07636716039222084</v>
+        <v>0.1146391560078424</v>
       </c>
       <c r="O48" t="n">
         <v>1136</v>
@@ -3768,13 +3768,13 @@
         <v>8270</v>
       </c>
       <c r="L49" t="n">
-        <v>0.04176849847543235</v>
+        <v>0.09127330117982055</v>
       </c>
       <c r="M49" t="n">
         <v>82587</v>
       </c>
       <c r="N49" t="n">
-        <v>0.05731980802898558</v>
+        <v>0.09638105685743628</v>
       </c>
       <c r="O49" t="n">
         <v>648</v>
@@ -3824,7 +3824,7 @@
         <v>165</v>
       </c>
       <c r="H50" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I50" t="n">
         <v>23</v>
@@ -3836,25 +3836,25 @@
         <v>58026</v>
       </c>
       <c r="L50" t="n">
-        <v>0.6208248958406071</v>
+        <v>0.6404140960411447</v>
       </c>
       <c r="M50" t="n">
         <v>572007</v>
       </c>
       <c r="N50" t="n">
-        <v>0.6531750457160806</v>
+        <v>0.6675462141723462</v>
       </c>
       <c r="O50" t="n">
-        <v>4189</v>
+        <v>4169</v>
       </c>
       <c r="P50" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q50" t="n">
-        <v>27096</v>
+        <v>26968</v>
       </c>
       <c r="R50" t="n">
-        <v>15190</v>
+        <v>15119</v>
       </c>
     </row>
     <row r="51">
@@ -3889,40 +3889,40 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="H51" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I51" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J51" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K51" t="n">
         <v>35745</v>
       </c>
       <c r="L51" t="n">
-        <v>0.3615203779996742</v>
+        <v>0.3945059432494178</v>
       </c>
       <c r="M51" t="n">
         <v>304785</v>
       </c>
       <c r="N51" t="n">
-        <v>0.3278396930022134</v>
+        <v>0.3556915787508169</v>
       </c>
       <c r="O51" t="n">
-        <v>2111</v>
+        <v>2211</v>
       </c>
       <c r="P51" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q51" t="n">
-        <v>1090</v>
+        <v>1141</v>
       </c>
       <c r="R51" t="n">
-        <v>6476</v>
+        <v>6781</v>
       </c>
     </row>
     <row r="52">
@@ -3957,40 +3957,40 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="H52" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I52" t="n">
         <v>13</v>
       </c>
       <c r="J52" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K52" t="n">
         <v>35915</v>
       </c>
       <c r="L52" t="n">
-        <v>0.3634988245699788</v>
+        <v>0.396382177977419</v>
       </c>
       <c r="M52" t="n">
         <v>446013</v>
       </c>
       <c r="N52" t="n">
-        <v>0.4997808550063674</v>
+        <v>0.5205081224908972</v>
       </c>
       <c r="O52" t="n">
-        <v>1196</v>
+        <v>1230</v>
       </c>
       <c r="P52" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q52" t="n">
-        <v>2998</v>
+        <v>3084</v>
       </c>
       <c r="R52" t="n">
-        <v>6001</v>
+        <v>6173</v>
       </c>
     </row>
     <row r="53">
@@ -4025,40 +4025,40 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="H53" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="I53" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J53" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K53" t="n">
         <v>18535</v>
       </c>
       <c r="L53" t="n">
-        <v>0.1612317575588297</v>
+        <v>0.2045647687264781</v>
       </c>
       <c r="M53" t="n">
         <v>148593</v>
       </c>
       <c r="N53" t="n">
-        <v>0.1376802771940675</v>
+        <v>0.1734116795817384</v>
       </c>
       <c r="O53" t="n">
-        <v>1017</v>
+        <v>1208</v>
       </c>
       <c r="P53" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="Q53" t="n">
-        <v>10686</v>
+        <v>12692</v>
       </c>
       <c r="R53" t="n">
-        <v>2329</v>
+        <v>2767</v>
       </c>
     </row>
     <row r="54">
@@ -4093,40 +4093,40 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H54" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I54" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J54" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K54" t="n">
         <v>31038</v>
       </c>
       <c r="L54" t="n">
-        <v>0.306740683844238</v>
+        <v>0.3425563146335272</v>
       </c>
       <c r="M54" t="n">
         <v>201310</v>
       </c>
       <c r="N54" t="n">
-        <v>0.2018617584681278</v>
+        <v>0.2349337130053216</v>
       </c>
       <c r="O54" t="n">
-        <v>2119</v>
+        <v>2177</v>
       </c>
       <c r="P54" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q54" t="n">
         <v>0</v>
       </c>
       <c r="R54" t="n">
-        <v>7418</v>
+        <v>7623</v>
       </c>
     </row>
     <row r="55">
@@ -4161,40 +4161,40 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="H55" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I55" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J55" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K55" t="n">
         <v>27199</v>
       </c>
       <c r="L55" t="n">
-        <v>0.2620627051183577</v>
+        <v>0.3001865198053131</v>
       </c>
       <c r="M55" t="n">
         <v>193144</v>
       </c>
       <c r="N55" t="n">
-        <v>0.1919198805903279</v>
+        <v>0.225403790495752</v>
       </c>
       <c r="O55" t="n">
-        <v>1508</v>
+        <v>1577</v>
       </c>
       <c r="P55" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q55" t="n">
-        <v>1569</v>
+        <v>1641</v>
       </c>
       <c r="R55" t="n">
-        <v>4323</v>
+        <v>4521</v>
       </c>
     </row>
     <row r="56">
@@ -4229,40 +4229,40 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="H56" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I56" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J56" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K56" t="n">
         <v>14833</v>
       </c>
       <c r="L56" t="n">
-        <v>0.1181481740101948</v>
+        <v>0.1637069983555355</v>
       </c>
       <c r="M56" t="n">
         <v>197688</v>
       </c>
       <c r="N56" t="n">
-        <v>0.1974520742073648</v>
+        <v>0.2307067500700215</v>
       </c>
       <c r="O56" t="n">
-        <v>1936</v>
+        <v>2046</v>
       </c>
       <c r="P56" t="n">
         <v>13</v>
       </c>
       <c r="Q56" t="n">
-        <v>18779</v>
+        <v>19854</v>
       </c>
       <c r="R56" t="n">
-        <v>3362</v>
+        <v>3554</v>
       </c>
     </row>
   </sheetData>

--- a/정원/project_3/2_3_지청_신설_컬럼_업데이트.xlsx
+++ b/정원/project_3/2_3_지청_신설_컬럼_업데이트.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R56"/>
+  <dimension ref="A1:U56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -511,17 +511,32 @@
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
+          <t>재해자수_24_표준</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
           <t>중대재해자수_24</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>중대재해자수_24_표준</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>근로손실일수_24</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>신고사건_24</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>신고사건_24_표준</t>
         </is>
       </c>
     </row>
@@ -584,13 +599,22 @@
         <v>1979</v>
       </c>
       <c r="P2" t="n">
-        <v>48</v>
+        <v>0.3322699798522498</v>
       </c>
       <c r="Q2" t="n">
+        <v>8</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.1454545454545454</v>
+      </c>
+      <c r="S2" t="n">
         <v>4958</v>
       </c>
-      <c r="R2" t="n">
-        <v>9926</v>
+      <c r="T2" t="n">
+        <v>8102</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.4319223797846252</v>
       </c>
     </row>
     <row r="3">
@@ -649,16 +673,25 @@
         <v>0.8530541032583325</v>
       </c>
       <c r="O3" t="n">
-        <v>2063</v>
+        <v>2034</v>
       </c>
       <c r="P3" t="n">
-        <v>9</v>
+        <v>0.3415043653458697</v>
       </c>
       <c r="Q3" t="n">
+        <v>10</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="S3" t="n">
         <v>69</v>
       </c>
-      <c r="R3" t="n">
-        <v>17926</v>
+      <c r="T3" t="n">
+        <v>17967</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.9578313253012049</v>
       </c>
     </row>
     <row r="4">
@@ -717,16 +750,25 @@
         <v>0.8586126412099711</v>
       </c>
       <c r="O4" t="n">
-        <v>5303</v>
+        <v>5138</v>
       </c>
       <c r="P4" t="n">
-        <v>23</v>
+        <v>0.8626595030221625</v>
       </c>
       <c r="Q4" t="n">
+        <v>18</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.3272727272727273</v>
+      </c>
+      <c r="S4" t="n">
         <v>8782</v>
       </c>
-      <c r="R4" t="n">
-        <v>16209</v>
+      <c r="T4" t="n">
+        <v>17127</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.9130504318157586</v>
       </c>
     </row>
     <row r="5">
@@ -785,16 +827,25 @@
         <v>0.6172404537391467</v>
       </c>
       <c r="O5" t="n">
-        <v>2163</v>
+        <v>2058</v>
       </c>
       <c r="P5" t="n">
-        <v>14</v>
+        <v>0.3455339153794493</v>
       </c>
       <c r="Q5" t="n">
+        <v>10</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="S5" t="n">
         <v>1664</v>
       </c>
-      <c r="R5" t="n">
-        <v>10795</v>
+      <c r="T5" t="n">
+        <v>9371</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.4995735153001386</v>
       </c>
     </row>
     <row r="6">
@@ -853,16 +904,25 @@
         <v>0.8400732891420035</v>
       </c>
       <c r="O6" t="n">
-        <v>2827</v>
+        <v>2698</v>
       </c>
       <c r="P6" t="n">
-        <v>4</v>
+        <v>0.4529885829415715</v>
       </c>
       <c r="Q6" t="n">
+        <v>11</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="S6" t="n">
         <v>9494</v>
       </c>
-      <c r="R6" t="n">
-        <v>12562</v>
+      <c r="T6" t="n">
+        <v>12064</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.6431389273909799</v>
       </c>
     </row>
     <row r="7">
@@ -921,16 +981,25 @@
         <v>0.4085356175893941</v>
       </c>
       <c r="O7" t="n">
-        <v>2072</v>
+        <v>1944</v>
       </c>
       <c r="P7" t="n">
-        <v>15</v>
+        <v>0.3263935527199462</v>
       </c>
       <c r="Q7" t="n">
+        <v>7</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.1272727272727273</v>
+      </c>
+      <c r="S7" t="n">
         <v>4999</v>
       </c>
-      <c r="R7" t="n">
-        <v>7886</v>
+      <c r="T7" t="n">
+        <v>7078</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.377332338202367</v>
       </c>
     </row>
     <row r="8">
@@ -989,16 +1058,25 @@
         <v>0.6780342638409113</v>
       </c>
       <c r="O8" t="n">
-        <v>2222</v>
+        <v>2089</v>
       </c>
       <c r="P8" t="n">
-        <v>15</v>
+        <v>0.3507387508394896</v>
       </c>
       <c r="Q8" t="n">
+        <v>10</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="S8" t="n">
         <v>558</v>
       </c>
-      <c r="R8" t="n">
-        <v>11845</v>
+      <c r="T8" t="n">
+        <v>12107</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.6454312826527349</v>
       </c>
     </row>
     <row r="9">
@@ -1057,16 +1135,25 @@
         <v>0.6233906731397628</v>
       </c>
       <c r="O9" t="n">
-        <v>4594</v>
+        <v>4422</v>
       </c>
       <c r="P9" t="n">
-        <v>136</v>
+        <v>0.7424445936870383</v>
       </c>
       <c r="Q9" t="n">
+        <v>28</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.509090909090909</v>
+      </c>
+      <c r="S9" t="n">
         <v>1779</v>
       </c>
-      <c r="R9" t="n">
-        <v>14981</v>
+      <c r="T9" t="n">
+        <v>12582</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.670753811707005</v>
       </c>
     </row>
     <row r="10">
@@ -1125,16 +1212,25 @@
         <v>0.4624066380356643</v>
       </c>
       <c r="O10" t="n">
-        <v>3780</v>
+        <v>3638</v>
       </c>
       <c r="P10" t="n">
-        <v>39</v>
+        <v>0.6108126259234385</v>
       </c>
       <c r="Q10" t="n">
+        <v>21</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.3818181818181818</v>
+      </c>
+      <c r="S10" t="n">
         <v>65546</v>
       </c>
-      <c r="R10" t="n">
-        <v>12137</v>
+      <c r="T10" t="n">
+        <v>11478</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.6118989231261328</v>
       </c>
     </row>
     <row r="11">
@@ -1193,16 +1289,25 @@
         <v>0.4683969750723555</v>
       </c>
       <c r="O11" t="n">
-        <v>3093</v>
+        <v>2930</v>
       </c>
       <c r="P11" t="n">
-        <v>29</v>
+        <v>0.4919408999328408</v>
       </c>
       <c r="Q11" t="n">
+        <v>13</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.2363636363636364</v>
+      </c>
+      <c r="S11" t="n">
         <v>108</v>
       </c>
-      <c r="R11" t="n">
-        <v>11129</v>
+      <c r="T11" t="n">
+        <v>10626</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0.5664783025908946</v>
       </c>
     </row>
     <row r="12">
@@ -1261,16 +1366,25 @@
         <v>0.3439804873494539</v>
       </c>
       <c r="O12" t="n">
-        <v>2936</v>
+        <v>3005</v>
       </c>
       <c r="P12" t="n">
-        <v>38</v>
+        <v>0.5045332437877771</v>
       </c>
       <c r="Q12" t="n">
+        <v>22</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="S12" t="n">
         <v>0</v>
       </c>
-      <c r="R12" t="n">
-        <v>10279</v>
+      <c r="T12" t="n">
+        <v>8897</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.4743042968333511</v>
       </c>
     </row>
     <row r="13">
@@ -1329,16 +1443,25 @@
         <v>0.5480837456820091</v>
       </c>
       <c r="O13" t="n">
-        <v>3734</v>
+        <v>3552</v>
       </c>
       <c r="P13" t="n">
-        <v>39</v>
+        <v>0.5963734049697784</v>
       </c>
       <c r="Q13" t="n">
+        <v>23</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.4181818181818182</v>
+      </c>
+      <c r="S13" t="n">
         <v>1789</v>
       </c>
-      <c r="R13" t="n">
-        <v>14308</v>
+      <c r="T13" t="n">
+        <v>12274</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0.6543341507623414</v>
       </c>
     </row>
     <row r="14">
@@ -1397,16 +1520,25 @@
         <v>0.8162624871627299</v>
       </c>
       <c r="O14" t="n">
-        <v>5393</v>
+        <v>4148</v>
       </c>
       <c r="P14" t="n">
-        <v>109</v>
+        <v>0.6964405641370047</v>
       </c>
       <c r="Q14" t="n">
+        <v>17</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.3090909090909091</v>
+      </c>
+      <c r="S14" t="n">
         <v>34886</v>
       </c>
-      <c r="R14" t="n">
-        <v>19558</v>
+      <c r="T14" t="n">
+        <v>14715</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.7844652948075488</v>
       </c>
     </row>
     <row r="15">
@@ -1465,16 +1597,25 @@
         <v>1</v>
       </c>
       <c r="O15" t="n">
-        <v>6122</v>
+        <v>5956</v>
       </c>
       <c r="P15" t="n">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="Q15" t="n">
+        <v>27</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.4909090909090909</v>
+      </c>
+      <c r="S15" t="n">
         <v>1081</v>
       </c>
-      <c r="R15" t="n">
-        <v>20667</v>
+      <c r="T15" t="n">
+        <v>18758</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -1533,16 +1674,25 @@
         <v>0.5648982354588741</v>
       </c>
       <c r="O16" t="n">
-        <v>2824</v>
+        <v>2746</v>
       </c>
       <c r="P16" t="n">
-        <v>16</v>
+        <v>0.4610476830087307</v>
       </c>
       <c r="Q16" t="n">
+        <v>19</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.3454545454545455</v>
+      </c>
+      <c r="S16" t="n">
         <v>1803</v>
       </c>
-      <c r="R16" t="n">
-        <v>9318</v>
+      <c r="T16" t="n">
+        <v>9050</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.4824608167182002</v>
       </c>
     </row>
     <row r="17">
@@ -1601,16 +1751,25 @@
         <v>0.5172019419288582</v>
       </c>
       <c r="O17" t="n">
-        <v>3761</v>
+        <v>3512</v>
       </c>
       <c r="P17" t="n">
-        <v>29</v>
+        <v>0.5896574882471457</v>
       </c>
       <c r="Q17" t="n">
+        <v>22</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="S17" t="n">
         <v>381</v>
       </c>
-      <c r="R17" t="n">
-        <v>11653</v>
+      <c r="T17" t="n">
+        <v>11330</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0.6040089561786971</v>
       </c>
     </row>
     <row r="18">
@@ -1669,16 +1828,25 @@
         <v>0.3739228363364765</v>
       </c>
       <c r="O18" t="n">
-        <v>2233</v>
+        <v>2947</v>
       </c>
       <c r="P18" t="n">
-        <v>45</v>
+        <v>0.4947951645399597</v>
       </c>
       <c r="Q18" t="n">
+        <v>26</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0.4727272727272727</v>
+      </c>
+      <c r="S18" t="n">
         <v>14444</v>
       </c>
-      <c r="R18" t="n">
-        <v>8097</v>
+      <c r="T18" t="n">
+        <v>8109</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0.432295553897004</v>
       </c>
     </row>
     <row r="19">
@@ -1737,16 +1905,25 @@
         <v>0.1699222761646905</v>
       </c>
       <c r="O19" t="n">
-        <v>1493</v>
+        <v>1468</v>
       </c>
       <c r="P19" t="n">
-        <v>49</v>
+        <v>0.2464741437206179</v>
       </c>
       <c r="Q19" t="n">
+        <v>15</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.2727272727272727</v>
+      </c>
+      <c r="S19" t="n">
         <v>0</v>
       </c>
-      <c r="R19" t="n">
-        <v>3033</v>
+      <c r="T19" t="n">
+        <v>3807</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0.2029534065465401</v>
       </c>
     </row>
     <row r="20">
@@ -1805,16 +1982,25 @@
         <v>0.1567990850527495</v>
       </c>
       <c r="O20" t="n">
-        <v>1649</v>
+        <v>1629</v>
       </c>
       <c r="P20" t="n">
-        <v>15</v>
+        <v>0.2735057085292142</v>
       </c>
       <c r="Q20" t="n">
+        <v>3</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0.05454545454545454</v>
+      </c>
+      <c r="S20" t="n">
         <v>0</v>
       </c>
-      <c r="R20" t="n">
-        <v>2953</v>
+      <c r="T20" t="n">
+        <v>8811</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0.4697195863098411</v>
       </c>
     </row>
     <row r="21">
@@ -1873,16 +2059,25 @@
         <v>0.1674831948464196</v>
       </c>
       <c r="O21" t="n">
-        <v>1183</v>
+        <v>1147</v>
       </c>
       <c r="P21" t="n">
-        <v>13</v>
+        <v>0.1925789120214909</v>
       </c>
       <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="S21" t="n">
         <v>0</v>
       </c>
-      <c r="R21" t="n">
-        <v>2793</v>
+      <c r="T21" t="n">
+        <v>196</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0.01044887514660412</v>
       </c>
     </row>
     <row r="22">
@@ -1941,16 +2136,25 @@
         <v>0.0414363738213052</v>
       </c>
       <c r="O22" t="n">
-        <v>1966</v>
+        <v>1958</v>
       </c>
       <c r="P22" t="n">
-        <v>6</v>
+        <v>0.3287441235728677</v>
       </c>
       <c r="Q22" t="n">
+        <v>3</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0.05454545454545454</v>
+      </c>
+      <c r="S22" t="n">
         <v>0</v>
       </c>
-      <c r="R22" t="n">
-        <v>757</v>
+      <c r="T22" t="n">
+        <v>1601</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0.08535025055976117</v>
       </c>
     </row>
     <row r="23">
@@ -2009,16 +2213,25 @@
         <v>0.04434926710857996</v>
       </c>
       <c r="O23" t="n">
-        <v>1193</v>
+        <v>1186</v>
       </c>
       <c r="P23" t="n">
-        <v>3</v>
+        <v>0.1991269308260578</v>
       </c>
       <c r="Q23" t="n">
+        <v>10</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="S23" t="n">
         <v>0</v>
       </c>
-      <c r="R23" t="n">
-        <v>768</v>
+      <c r="T23" t="n">
+        <v>505</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0.0269218466787504</v>
       </c>
     </row>
     <row r="24">
@@ -2077,16 +2290,25 @@
         <v>0.6162484828680795</v>
       </c>
       <c r="O24" t="n">
-        <v>3326</v>
+        <v>3117</v>
       </c>
       <c r="P24" t="n">
-        <v>134</v>
+        <v>0.5233378106111484</v>
       </c>
       <c r="Q24" t="n">
+        <v>21</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0.3818181818181818</v>
+      </c>
+      <c r="S24" t="n">
         <v>632</v>
       </c>
-      <c r="R24" t="n">
-        <v>10360</v>
+      <c r="T24" t="n">
+        <v>9962</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0.531080072502399</v>
       </c>
     </row>
     <row r="25">
@@ -2145,16 +2367,25 @@
         <v>0.4321258519279246</v>
       </c>
       <c r="O25" t="n">
-        <v>2330</v>
+        <v>2245</v>
       </c>
       <c r="P25" t="n">
-        <v>28</v>
+        <v>0.3769308260577569</v>
       </c>
       <c r="Q25" t="n">
+        <v>13</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0.2363636363636364</v>
+      </c>
+      <c r="S25" t="n">
         <v>1077</v>
       </c>
-      <c r="R25" t="n">
-        <v>9022</v>
+      <c r="T25" t="n">
+        <v>8866</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0.4726516686213882</v>
       </c>
     </row>
     <row r="26">
@@ -2213,16 +2444,25 @@
         <v>0.3025371113808235</v>
       </c>
       <c r="O26" t="n">
-        <v>2320</v>
+        <v>2277</v>
       </c>
       <c r="P26" t="n">
-        <v>28</v>
+        <v>0.382303559435863</v>
       </c>
       <c r="Q26" t="n">
+        <v>11</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="S26" t="n">
         <v>14168</v>
       </c>
-      <c r="R26" t="n">
-        <v>5786</v>
+      <c r="T26" t="n">
+        <v>5206</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0.2775349184348012</v>
       </c>
     </row>
     <row r="27">
@@ -2281,16 +2521,25 @@
         <v>0.4948230790775838</v>
       </c>
       <c r="O27" t="n">
-        <v>3653</v>
+        <v>3546</v>
       </c>
       <c r="P27" t="n">
-        <v>35</v>
+        <v>0.5953660174613835</v>
       </c>
       <c r="Q27" t="n">
+        <v>18</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0.3272727272727273</v>
+      </c>
+      <c r="S27" t="n">
         <v>6254</v>
       </c>
-      <c r="R27" t="n">
-        <v>8386</v>
+      <c r="T27" t="n">
+        <v>7427</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0.3959377332338203</v>
       </c>
     </row>
     <row r="28">
@@ -2349,16 +2598,25 @@
         <v>0.2720614321725329</v>
       </c>
       <c r="O28" t="n">
-        <v>2857</v>
+        <v>2082</v>
       </c>
       <c r="P28" t="n">
-        <v>19</v>
+        <v>0.3495634654130289</v>
       </c>
       <c r="Q28" t="n">
+        <v>17</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0.3090909090909091</v>
+      </c>
+      <c r="S28" t="n">
         <v>27714</v>
       </c>
-      <c r="R28" t="n">
-        <v>4961</v>
+      <c r="T28" t="n">
+        <v>4300</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0.2292355261754984</v>
       </c>
     </row>
     <row r="29">
@@ -2417,16 +2675,25 @@
         <v>0.4121860703949211</v>
       </c>
       <c r="O29" t="n">
-        <v>3484</v>
+        <v>3384</v>
       </c>
       <c r="P29" t="n">
-        <v>13</v>
+        <v>0.5681665547347213</v>
       </c>
       <c r="Q29" t="n">
+        <v>24</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0.4363636363636363</v>
+      </c>
+      <c r="S29" t="n">
         <v>151</v>
       </c>
-      <c r="R29" t="n">
-        <v>7848</v>
+      <c r="T29" t="n">
+        <v>6932</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0.3695489924298966</v>
       </c>
     </row>
     <row r="30">
@@ -2485,16 +2752,25 @@
         <v>0.2424306787414807</v>
       </c>
       <c r="O30" t="n">
-        <v>1651</v>
+        <v>1613</v>
       </c>
       <c r="P30" t="n">
-        <v>31</v>
+        <v>0.2708193418401612</v>
       </c>
       <c r="Q30" t="n">
+        <v>9</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0.1636363636363636</v>
+      </c>
+      <c r="S30" t="n">
         <v>0</v>
       </c>
-      <c r="R30" t="n">
-        <v>3536</v>
+      <c r="T30" t="n">
+        <v>3161</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0.1685147670327327</v>
       </c>
     </row>
     <row r="31">
@@ -2553,16 +2829,25 @@
         <v>0.1490255344972458</v>
       </c>
       <c r="O31" t="n">
-        <v>2358</v>
+        <v>2330</v>
       </c>
       <c r="P31" t="n">
-        <v>27</v>
+        <v>0.3912021490933513</v>
       </c>
       <c r="Q31" t="n">
+        <v>14</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0.2545454545454545</v>
+      </c>
+      <c r="S31" t="n">
         <v>3864</v>
       </c>
-      <c r="R31" t="n">
-        <v>3278</v>
+      <c r="T31" t="n">
+        <v>2844</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0.151615310800725</v>
       </c>
     </row>
     <row r="32">
@@ -2621,16 +2906,25 @@
         <v>0.3938941275324433</v>
       </c>
       <c r="O32" t="n">
-        <v>2449</v>
+        <v>2563</v>
       </c>
       <c r="P32" t="n">
-        <v>50</v>
+        <v>0.4303223640026864</v>
       </c>
       <c r="Q32" t="n">
+        <v>15</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0.2727272727272727</v>
+      </c>
+      <c r="S32" t="n">
         <v>2547</v>
       </c>
-      <c r="R32" t="n">
-        <v>7021</v>
+      <c r="T32" t="n">
+        <v>7597</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0.4050005331058748</v>
       </c>
     </row>
     <row r="33">
@@ -2689,16 +2983,25 @@
         <v>0.512292269629353</v>
       </c>
       <c r="O33" t="n">
-        <v>3500</v>
+        <v>3350</v>
       </c>
       <c r="P33" t="n">
-        <v>33</v>
+        <v>0.5624580255204835</v>
       </c>
       <c r="Q33" t="n">
+        <v>13</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0.2363636363636364</v>
+      </c>
+      <c r="S33" t="n">
         <v>2178</v>
       </c>
-      <c r="R33" t="n">
-        <v>9109</v>
+      <c r="T33" t="n">
+        <v>8491</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0.4526601983153855</v>
       </c>
     </row>
     <row r="34">
@@ -2757,16 +3060,25 @@
         <v>0.3489053309681636</v>
       </c>
       <c r="O34" t="n">
-        <v>2987</v>
+        <v>2935</v>
       </c>
       <c r="P34" t="n">
-        <v>19</v>
+        <v>0.4927803895231699</v>
       </c>
       <c r="Q34" t="n">
+        <v>20</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0.3636363636363636</v>
+      </c>
+      <c r="S34" t="n">
         <v>26678</v>
       </c>
-      <c r="R34" t="n">
-        <v>6366</v>
+      <c r="T34" t="n">
+        <v>5299</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0.2824928030706899</v>
       </c>
     </row>
     <row r="35">
@@ -2825,16 +3137,25 @@
         <v>0.2444928111287462</v>
       </c>
       <c r="O35" t="n">
-        <v>1195</v>
+        <v>1137</v>
       </c>
       <c r="P35" t="n">
-        <v>11</v>
+        <v>0.1908999328408328</v>
       </c>
       <c r="Q35" t="n">
+        <v>4</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0.07272727272727272</v>
+      </c>
+      <c r="S35" t="n">
         <v>476</v>
       </c>
-      <c r="R35" t="n">
-        <v>3484</v>
+      <c r="T35" t="n">
+        <v>2953</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0.1574261648363365</v>
       </c>
     </row>
     <row r="36">
@@ -2893,16 +3214,25 @@
         <v>0.09050858930071888</v>
       </c>
       <c r="O36" t="n">
-        <v>1043</v>
+        <v>1027</v>
       </c>
       <c r="P36" t="n">
+        <v>0.172431161853593</v>
+      </c>
+      <c r="Q36" t="n">
         <v>12</v>
       </c>
-      <c r="Q36" t="n">
+      <c r="R36" t="n">
+        <v>0.2181818181818182</v>
+      </c>
+      <c r="S36" t="n">
         <v>0</v>
       </c>
-      <c r="R36" t="n">
-        <v>1572</v>
+      <c r="T36" t="n">
+        <v>1342</v>
+      </c>
+      <c r="U36" t="n">
+        <v>0.07154280840174859</v>
       </c>
     </row>
     <row r="37">
@@ -2961,16 +3291,25 @@
         <v>0.08315983568294277</v>
       </c>
       <c r="O37" t="n">
-        <v>700</v>
+        <v>682</v>
       </c>
       <c r="P37" t="n">
-        <v>3</v>
+        <v>0.1145063801208865</v>
       </c>
       <c r="Q37" t="n">
+        <v>6</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0.1090909090909091</v>
+      </c>
+      <c r="S37" t="n">
         <v>327</v>
       </c>
-      <c r="R37" t="n">
-        <v>1444</v>
+      <c r="T37" t="n">
+        <v>1146</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0.06109393325514447</v>
       </c>
     </row>
     <row r="38">
@@ -3029,16 +3368,25 @@
         <v>0.6461523200448137</v>
       </c>
       <c r="O38" t="n">
-        <v>4344</v>
+        <v>4275</v>
       </c>
       <c r="P38" t="n">
-        <v>49</v>
+        <v>0.7177635997313633</v>
       </c>
       <c r="Q38" t="n">
+        <v>23</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0.4181818181818182</v>
+      </c>
+      <c r="S38" t="n">
         <v>2243</v>
       </c>
-      <c r="R38" t="n">
-        <v>13325</v>
+      <c r="T38" t="n">
+        <v>12956</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0.6906919714255251</v>
       </c>
     </row>
     <row r="39">
@@ -3097,16 +3445,25 @@
         <v>0.3608883390906545</v>
       </c>
       <c r="O39" t="n">
-        <v>2533</v>
+        <v>2425</v>
       </c>
       <c r="P39" t="n">
-        <v>10</v>
+        <v>0.4071524513096038</v>
       </c>
       <c r="Q39" t="n">
+        <v>18</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0.3272727272727273</v>
+      </c>
+      <c r="S39" t="n">
         <v>325</v>
       </c>
-      <c r="R39" t="n">
-        <v>6425</v>
+      <c r="T39" t="n">
+        <v>5899</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0.3144791555602943</v>
       </c>
     </row>
     <row r="40">
@@ -3165,16 +3522,25 @@
         <v>0.1353048268135562</v>
       </c>
       <c r="O40" t="n">
-        <v>1158</v>
+        <v>1115</v>
       </c>
       <c r="P40" t="n">
-        <v>3</v>
+        <v>0.1872061786433848</v>
       </c>
       <c r="Q40" t="n">
+        <v>7</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0.1272727272727273</v>
+      </c>
+      <c r="S40" t="n">
         <v>36</v>
       </c>
-      <c r="R40" t="n">
-        <v>2589</v>
+      <c r="T40" t="n">
+        <v>2271</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0.1210683441731528</v>
       </c>
     </row>
     <row r="41">
@@ -3233,16 +3599,25 @@
         <v>0.1227301372420876</v>
       </c>
       <c r="O41" t="n">
-        <v>1112</v>
+        <v>1092</v>
       </c>
       <c r="P41" t="n">
-        <v>12</v>
+        <v>0.1833445265278711</v>
       </c>
       <c r="Q41" t="n">
+        <v>16</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0.2909090909090909</v>
+      </c>
+      <c r="S41" t="n">
         <v>245</v>
       </c>
-      <c r="R41" t="n">
-        <v>2746</v>
+      <c r="T41" t="n">
+        <v>2328</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0.1241070476596652</v>
       </c>
     </row>
     <row r="42">
@@ -3301,16 +3676,25 @@
         <v>0.189660162449818</v>
       </c>
       <c r="O42" t="n">
-        <v>2048</v>
+        <v>2025</v>
       </c>
       <c r="P42" t="n">
-        <v>18</v>
+        <v>0.3399932840832774</v>
       </c>
       <c r="Q42" t="n">
+        <v>17</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0.3090909090909091</v>
+      </c>
+      <c r="S42" t="n">
         <v>280</v>
       </c>
-      <c r="R42" t="n">
-        <v>4205</v>
+      <c r="T42" t="n">
+        <v>3527</v>
+      </c>
+      <c r="U42" t="n">
+        <v>0.1880264420513914</v>
       </c>
     </row>
     <row r="43">
@@ -3369,16 +3753,25 @@
         <v>0.3363878255998506</v>
       </c>
       <c r="O43" t="n">
-        <v>2669</v>
+        <v>2618</v>
       </c>
       <c r="P43" t="n">
-        <v>24</v>
+        <v>0.4395567494963062</v>
       </c>
       <c r="Q43" t="n">
+        <v>20</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0.3636363636363636</v>
+      </c>
+      <c r="S43" t="n">
         <v>19739</v>
       </c>
-      <c r="R43" t="n">
-        <v>4915</v>
+      <c r="T43" t="n">
+        <v>4195</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0.2236379144898177</v>
       </c>
     </row>
     <row r="44">
@@ -3437,16 +3830,25 @@
         <v>0.6883787694893101</v>
       </c>
       <c r="O44" t="n">
-        <v>4409</v>
+        <v>4008</v>
       </c>
       <c r="P44" t="n">
-        <v>115</v>
+        <v>0.6729348556077904</v>
       </c>
       <c r="Q44" t="n">
+        <v>10</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="S44" t="n">
         <v>46341</v>
       </c>
-      <c r="R44" t="n">
-        <v>10101</v>
+      <c r="T44" t="n">
+        <v>9548</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0.5090094892845719</v>
       </c>
     </row>
     <row r="45">
@@ -3505,16 +3907,25 @@
         <v>0.477842871814023</v>
       </c>
       <c r="O45" t="n">
-        <v>3492</v>
+        <v>3334</v>
       </c>
       <c r="P45" t="n">
-        <v>36</v>
+        <v>0.5597716588314305</v>
       </c>
       <c r="Q45" t="n">
+        <v>25</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0.4545454545454545</v>
+      </c>
+      <c r="S45" t="n">
         <v>5803</v>
       </c>
-      <c r="R45" t="n">
-        <v>7463</v>
+      <c r="T45" t="n">
+        <v>6925</v>
+      </c>
+      <c r="U45" t="n">
+        <v>0.3691758183175178</v>
       </c>
     </row>
     <row r="46">
@@ -3573,16 +3984,25 @@
         <v>0.6071818691065261</v>
       </c>
       <c r="O46" t="n">
-        <v>4147</v>
+        <v>4003</v>
       </c>
       <c r="P46" t="n">
-        <v>56</v>
+        <v>0.6720953660174613</v>
       </c>
       <c r="Q46" t="n">
+        <v>29</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0.5272727272727272</v>
+      </c>
+      <c r="S46" t="n">
         <v>12016</v>
       </c>
-      <c r="R46" t="n">
-        <v>11791</v>
+      <c r="T46" t="n">
+        <v>9933</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0.5295340654654014</v>
       </c>
     </row>
     <row r="47">
@@ -3641,16 +4061,25 @@
         <v>0.2416336009709644</v>
       </c>
       <c r="O47" t="n">
-        <v>2021</v>
+        <v>1981</v>
       </c>
       <c r="P47" t="n">
-        <v>34</v>
+        <v>0.3326057756883815</v>
       </c>
       <c r="Q47" t="n">
+        <v>13</v>
+      </c>
+      <c r="R47" t="n">
+        <v>0.2363636363636364</v>
+      </c>
+      <c r="S47" t="n">
         <v>132</v>
       </c>
-      <c r="R47" t="n">
-        <v>4139</v>
+      <c r="T47" t="n">
+        <v>3322</v>
+      </c>
+      <c r="U47" t="n">
+        <v>0.1770977716174432</v>
       </c>
     </row>
     <row r="48">
@@ -3709,16 +4138,25 @@
         <v>0.1146391560078424</v>
       </c>
       <c r="O48" t="n">
-        <v>1136</v>
+        <v>1127</v>
       </c>
       <c r="P48" t="n">
-        <v>19</v>
+        <v>0.1892209536601746</v>
       </c>
       <c r="Q48" t="n">
+        <v>10</v>
+      </c>
+      <c r="R48" t="n">
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="S48" t="n">
         <v>26460</v>
       </c>
-      <c r="R48" t="n">
-        <v>2117</v>
+      <c r="T48" t="n">
+        <v>1687</v>
+      </c>
+      <c r="U48" t="n">
+        <v>0.08993496108327113</v>
       </c>
     </row>
     <row r="49">
@@ -3780,13 +4218,22 @@
         <v>648</v>
       </c>
       <c r="P49" t="n">
-        <v>11</v>
+        <v>0.1087978509066488</v>
       </c>
       <c r="Q49" t="n">
+        <v>3</v>
+      </c>
+      <c r="R49" t="n">
+        <v>0.05454545454545454</v>
+      </c>
+      <c r="S49" t="n">
         <v>39405</v>
       </c>
-      <c r="R49" t="n">
-        <v>1556</v>
+      <c r="T49" t="n">
+        <v>1204</v>
+      </c>
+      <c r="U49" t="n">
+        <v>0.06418594732913957</v>
       </c>
     </row>
     <row r="50">
@@ -3845,16 +4292,25 @@
         <v>0.6675462141723462</v>
       </c>
       <c r="O50" t="n">
-        <v>4169</v>
+        <v>4221</v>
       </c>
       <c r="P50" t="n">
-        <v>84</v>
+        <v>0.7086971121558092</v>
       </c>
       <c r="Q50" t="n">
+        <v>55</v>
+      </c>
+      <c r="R50" t="n">
+        <v>1</v>
+      </c>
+      <c r="S50" t="n">
         <v>26968</v>
       </c>
-      <c r="R50" t="n">
-        <v>15119</v>
+      <c r="T50" t="n">
+        <v>11763</v>
+      </c>
+      <c r="U50" t="n">
+        <v>0.627092440558695</v>
       </c>
     </row>
     <row r="51">
@@ -3913,16 +4369,25 @@
         <v>0.3556915787508169</v>
       </c>
       <c r="O51" t="n">
-        <v>2211</v>
+        <v>2070</v>
       </c>
       <c r="P51" t="n">
-        <v>25</v>
+        <v>0.3475486903962391</v>
       </c>
       <c r="Q51" t="n">
+        <v>9</v>
+      </c>
+      <c r="R51" t="n">
+        <v>0.1636363636363636</v>
+      </c>
+      <c r="S51" t="n">
         <v>1141</v>
       </c>
-      <c r="R51" t="n">
-        <v>6781</v>
+      <c r="T51" t="n">
+        <v>7195</v>
+      </c>
+      <c r="U51" t="n">
+        <v>0.3835696769378398</v>
       </c>
     </row>
     <row r="52">
@@ -3981,16 +4446,25 @@
         <v>0.5205081224908972</v>
       </c>
       <c r="O52" t="n">
-        <v>1230</v>
+        <v>1165</v>
       </c>
       <c r="P52" t="n">
-        <v>30</v>
+        <v>0.1956010745466756</v>
       </c>
       <c r="Q52" t="n">
+        <v>8</v>
+      </c>
+      <c r="R52" t="n">
+        <v>0.1454545454545454</v>
+      </c>
+      <c r="S52" t="n">
         <v>3084</v>
       </c>
-      <c r="R52" t="n">
-        <v>6173</v>
+      <c r="T52" t="n">
+        <v>8796</v>
+      </c>
+      <c r="U52" t="n">
+        <v>0.468919927497601</v>
       </c>
     </row>
     <row r="53">
@@ -4049,16 +4523,25 @@
         <v>0.1734116795817384</v>
       </c>
       <c r="O53" t="n">
-        <v>1208</v>
+        <v>1314</v>
       </c>
       <c r="P53" t="n">
-        <v>31</v>
+        <v>0.2206178643384822</v>
       </c>
       <c r="Q53" t="n">
+        <v>9</v>
+      </c>
+      <c r="R53" t="n">
+        <v>0.1636363636363636</v>
+      </c>
+      <c r="S53" t="n">
         <v>12692</v>
       </c>
-      <c r="R53" t="n">
-        <v>2767</v>
+      <c r="T53" t="n">
+        <v>2732</v>
+      </c>
+      <c r="U53" t="n">
+        <v>0.1456445250026655</v>
       </c>
     </row>
     <row r="54">
@@ -4117,16 +4600,25 @@
         <v>0.2349337130053216</v>
       </c>
       <c r="O54" t="n">
-        <v>2177</v>
+        <v>1902</v>
       </c>
       <c r="P54" t="n">
-        <v>29</v>
+        <v>0.319341840161182</v>
       </c>
       <c r="Q54" t="n">
+        <v>16</v>
+      </c>
+      <c r="R54" t="n">
+        <v>0.2909090909090909</v>
+      </c>
+      <c r="S54" t="n">
         <v>0</v>
       </c>
-      <c r="R54" t="n">
-        <v>7623</v>
+      <c r="T54" t="n">
+        <v>7075</v>
+      </c>
+      <c r="U54" t="n">
+        <v>0.377172406439919</v>
       </c>
     </row>
     <row r="55">
@@ -4185,16 +4677,25 @@
         <v>0.225403790495752</v>
       </c>
       <c r="O55" t="n">
-        <v>1577</v>
+        <v>1312</v>
       </c>
       <c r="P55" t="n">
-        <v>32</v>
+        <v>0.2202820685023506</v>
       </c>
       <c r="Q55" t="n">
+        <v>4</v>
+      </c>
+      <c r="R55" t="n">
+        <v>0.07272727272727272</v>
+      </c>
+      <c r="S55" t="n">
         <v>1641</v>
       </c>
-      <c r="R55" t="n">
-        <v>4521</v>
+      <c r="T55" t="n">
+        <v>3113</v>
+      </c>
+      <c r="U55" t="n">
+        <v>0.1659558588335643</v>
       </c>
     </row>
     <row r="56">
@@ -4253,16 +4754,25 @@
         <v>0.2307067500700215</v>
       </c>
       <c r="O56" t="n">
-        <v>2046</v>
+        <v>2702</v>
       </c>
       <c r="P56" t="n">
-        <v>13</v>
+        <v>0.4536601746138348</v>
       </c>
       <c r="Q56" t="n">
+        <v>10</v>
+      </c>
+      <c r="R56" t="n">
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="S56" t="n">
         <v>19854</v>
       </c>
-      <c r="R56" t="n">
-        <v>3554</v>
+      <c r="T56" t="n">
+        <v>2654</v>
+      </c>
+      <c r="U56" t="n">
+        <v>0.1414862991790169</v>
       </c>
     </row>
   </sheetData>
